--- a/Artefatos de Documentação/Processo Aplicado/EveRemind/7-Garantia da Qualidade/[Parcial]Checklist.xlsx
+++ b/Artefatos de Documentação/Processo Aplicado/EveRemind/7-Garantia da Qualidade/[Parcial]Checklist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="892"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="892" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Processo" sheetId="5" r:id="rId1"/>
@@ -32,9 +32,6 @@
     <t>Processo</t>
   </si>
   <si>
-    <t>Severidade da NC</t>
-  </si>
-  <si>
     <t>Descrição da Não Conformidade</t>
   </si>
   <si>
@@ -225,6 +222,9 @@
   </si>
   <si>
     <t>Gerência de Configuração</t>
+  </si>
+  <si>
+    <t>Criticidade da NC</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.5703125" defaultRowHeight="15.75"/>
   <cols>
@@ -763,7 +765,7 @@
     <row r="1" spans="1:4" ht="35.1" customHeight="1">
       <c r="A1" s="11"/>
       <c r="B1" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -773,145 +775,145 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -929,7 +931,7 @@
   <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.5703125" defaultRowHeight="15.75"/>
@@ -943,26 +945,26 @@
     <row r="1" spans="1:5" ht="35.1" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:5">
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
       </c>
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>0</v>
@@ -970,39 +972,39 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>2</v>
@@ -1010,32 +1012,32 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="12" t="s">
         <v>1</v>
@@ -1043,48 +1045,48 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30.75">
       <c r="A24" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1104,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.5703125" defaultRowHeight="15.75"/>
@@ -1116,28 +1118,28 @@
     <row r="1" spans="1:4" ht="35.1" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1155,7 +1157,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" activeCellId="2" sqref="B7 B5 B3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.5703125" defaultRowHeight="15.75"/>
@@ -1169,64 +1171,64 @@
     <row r="1" spans="1:4" ht="35.1" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1243,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="76.5703125" defaultRowHeight="15.75"/>
@@ -1258,38 +1260,38 @@
     <row r="1" spans="1:4" ht="35.1" customHeight="1">
       <c r="A1" s="7"/>
       <c r="B1" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C1" s="7"/>
       <c r="D1" s="7"/>
     </row>
     <row r="2" spans="1:4">
       <c r="B2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="B5" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
